--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,197 +1,764 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BECC0E8-749A-4F79-AA2C-92F28C5F70E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F9F3D2-967D-444F-8971-7BD6F0E1713E}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6672"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="4294967295"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입장료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴무일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <x:si>
+    <x:t xml:space="preserve">03187 서울 종로구 무교로 37 (서린동) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>엘리베이터, 
+장애인 화장실,
+휠체어 접근가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입장료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴무일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2290-6114</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">연중무휴 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>편의시설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간 개방되어있습니다. 
+다만, 우천 시 안전상의 이유로 출입이 통제될 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.sisul.or.kr/open_content/cheonggye/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종로구와 중구 사이를 가르는 10.84km의 하천. 청계천의 짧은 정의다. 
+하지만 청계천에는 무수히 많은 이야기가 농축되어 있다. 
+그것은 600년 수도 서울이 가지는 역사이기도 하고, 서울 시민 개개인이 가진 소소한 추억이기도 하다. 
+2003년 7월부터 2005년 9월까지 청계천은 엄청난 변신을 도모했다. 
+복개한 청계천로와 삼일로 주변 5.84km 구간을 복원하고 
+총 22개의 다리를 설치하는 등 시민들의 쉼터로 탈바꿈하기 위한 대대적인 공사였다.
+청계광장을 중심으로 각종 문화행사 등이 열리면서 지금은 광장의 역할도 하고 있다. 
+최근에는 예술 공간으로서의 역할도 훌륭히 해내고 있다. 
+광교갤러리와 청계창작스튜디오 같은 창작 무대에서는 예술가들의 감성을 만날 수 있다. 
+주말에는 거리 예술가들의 공연이 펼쳐진다. 청계천의 변신은 여전히 현재진행형이다.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="9">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="13"/>
+      <x:color rgb="ff666666"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="14"/>
+      <x:color rgb="ff666666"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="justify" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="justify" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="18">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:left style="thin">
+          <x:color rgb="ffbfbfbf"/>
+        </x:left>
+        <x:right style="thin">
+          <x:color rgb="ffbfbfbf"/>
+        </x:right>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:bottom style="thin">
+          <x:color rgb="ff8fabdb"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:bottom style="thin">
+          <x:color rgb="ff8fabdb"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+            <x:horizontal style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+            <x:horizontal style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff4472c4"/>
+              <x:bgColor rgb="ff4472c4"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff4472c4"/>
+              <x:bgColor rgb="ff4472c4"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="double">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="double">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+  </x:dxfs>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="20"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,7 +810,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="20"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -359,21 +926,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -433,66 +1000,104 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49066CCF-A071-4311-968B-6BFB0491AB04}">
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:M2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F4" activeCellId="0" sqref="F4:F4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="2" max="2" width="102.69140625" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="40.1171875" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="48.7265625" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="14.703125" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="41.63671875" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:13">
+      <x:c r="A1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13" ht="163.5">
+      <x:c r="A2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I2">
+        <x:v>37.569477583192999</x:v>
+      </x:c>
+      <x:c r="J2">
+        <x:v>126.97779641523999</x:v>
+      </x:c>
+      <x:c r="K2" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="L2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M2" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6672"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22812" windowHeight="8616"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -14,81 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <x:si>
-    <x:t xml:space="preserve">03187 서울 종로구 무교로 37 (서린동) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>엘리베이터, 
-장애인 화장실,
-휠체어 접근가능</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위도</x:t>
   </x:si>
   <x:si>
     <x:t>제목</x:t>
   </x:si>
   <x:si>
-    <x:t>기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
+    <x:t>입장료</x:t>
   </x:si>
   <x:si>
     <x:t>사진</x:t>
   </x:si>
   <x:si>
-    <x:t>경도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입장료</x:t>
-  </x:si>
-  <x:si>
     <x:t>휴무일</x:t>
   </x:si>
   <x:si>
-    <x:t>청계천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2290-6114</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">연중무휴 </x:t>
+    <x:t>이용시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지</x:t>
   </x:si>
   <x:si>
     <x:t>편의시설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간 개방되어있습니다. 
-다만, 우천 시 안전상의 이유로 출입이 통제될 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.sisul.or.kr/open_content/cheonggye/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종로구와 중구 사이를 가르는 10.84km의 하천. 청계천의 짧은 정의다. 
-하지만 청계천에는 무수히 많은 이야기가 농축되어 있다. 
-그것은 600년 수도 서울이 가지는 역사이기도 하고, 서울 시민 개개인이 가진 소소한 추억이기도 하다. 
-2003년 7월부터 2005년 9월까지 청계천은 엄청난 변신을 도모했다. 
-복개한 청계천로와 삼일로 주변 5.84km 구간을 복원하고 
-총 22개의 다리를 설치하는 등 시민들의 쉼터로 탈바꿈하기 위한 대대적인 공사였다.
-청계광장을 중심으로 각종 문화행사 등이 열리면서 지금은 광장의 역할도 하고 있다. 
-최근에는 예술 공간으로서의 역할도 훌륭히 해내고 있다. 
-광교갤러리와 청계창작스튜디오 같은 창작 무대에서는 예술가들의 감성을 만날 수 있다. 
-주말에는 거리 예술가들의 공연이 펼쳐진다. 청계천의 변신은 여전히 현재진행형이다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -136,11 +100,26 @@
       <x:sz val="13"/>
       <x:color rgb="ff666666"/>
     </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff666666"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff666666"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff666666"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -1008,96 +987,74 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F4" activeCellId="0" sqref="F4:F4"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N2" activeCellId="0" sqref="N2:N2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="2" max="2" width="102.69140625" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="40.1171875" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="48.7265625" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="14.703125" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="12" width="41.63671875" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.82421875" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.82421875" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="4.82421875" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="4.82421875" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="6.66015625" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="6.66015625" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="4.82421875" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="10" width="4.82421875" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="13" width="8.5" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
+      <x:c r="H1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="L1" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M1" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" ht="163.5">
-      <x:c r="A2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I2">
-        <x:v>37.569477583192999</x:v>
-      </x:c>
-      <x:c r="J2">
-        <x:v>126.97779641523999</x:v>
-      </x:c>
-      <x:c r="K2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="L2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="M2" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
+    <x:row r="2" spans="2:13" ht="18.399999999999999">
+      <x:c r="B2" s="1"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="F2" s="3"/>
+      <x:c r="K2" s="2"/>
+      <x:c r="M2" s="3"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>